--- a/medicine/Enfance/Tony_Stark_(bande_dessinée)/Tony_Stark_(bande_dessinée).xlsx
+++ b/medicine/Enfance/Tony_Stark_(bande_dessinée)/Tony_Stark_(bande_dessinée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tony_Stark_(bande_dessin%C3%A9e)</t>
+          <t>Tony_Stark_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tony Stark est un riche auteur de best-seller, aventurier et proche de la nature créé par Édouard Aidans (dessin) et Jean Van Hamme (scénario) dans les pages de l'hebdomadaire jeunesse ouest-allemand Zack (de) en 1977, dont les aventures sont reprises à partir de 1979 dans l'hebdomadaire Super As (ou Super J pour la vente par courtage).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tony_Stark_(bande_dessin%C3%A9e)</t>
+          <t>Tony_Stark_(bande_dessinée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la prépublication des épisodes dans Zack (de) en Allemagne, puis de certains épisodes dans Super As en Belgique, les épisodes prépubliés en français sont d'abord publiés en album par Novedi et Hachette. En septembre 2022, BD Must publie l'ensemble des épisodes dans deux intégrales.
 </t>
